--- a/tabel database.xlsx
+++ b/tabel database.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\si-bandid\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="10455" windowHeight="11265"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="81">
   <si>
     <t>Database Si-Bandid</t>
   </si>
@@ -253,13 +258,19 @@
   </si>
   <si>
     <t>realisasi_apbdes_dana</t>
+  </si>
+  <si>
+    <t>validasi</t>
+  </si>
+  <si>
+    <t>catatan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +318,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,9 +404,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,6 +439,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,14 +615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -619,17 +640,17 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -637,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -645,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -653,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -661,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -669,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
@@ -683,7 +704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -700,7 +721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -717,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -734,7 +755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -751,7 +772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -768,10 +789,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>6</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
@@ -779,359 +806,507 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2">
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>3</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2">
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>4</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2">
+      <c r="G30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>5</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2">
+      <c r="G31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>6</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2">
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>7</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="B36" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>1</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="2">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="2">
+      <c r="F39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>3</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E43" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1140,24 +1315,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
